--- a/SQL/Orellana-PruebaImportacionPrecios.xlsx
+++ b/SQL/Orellana-PruebaImportacionPrecios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,13 +1046,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
@@ -1082,101 +1082,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>100001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>11.01</v>
-      </c>
-      <c r="D2">
-        <v>12.02</v>
-      </c>
-      <c r="E2">
-        <v>13.03</v>
-      </c>
-      <c r="F2">
-        <v>14.45</v>
-      </c>
-    </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>15000</v>
+        <v>11.01</v>
       </c>
       <c r="D3">
-        <v>18000</v>
+        <v>12.02</v>
       </c>
       <c r="E3">
-        <v>19000</v>
+        <v>13.03</v>
       </c>
       <c r="F3">
-        <v>20500.330000000002</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>375.56</v>
+        <v>15000</v>
       </c>
       <c r="D4">
-        <v>430.75</v>
+        <v>18000</v>
       </c>
       <c r="E4">
-        <v>450.78</v>
+        <v>19000</v>
       </c>
       <c r="F4">
-        <v>490.75</v>
+        <v>20500.330000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>375.56</v>
       </c>
       <c r="D5">
-        <v>75.55</v>
+        <v>430.75</v>
       </c>
       <c r="E5">
-        <v>150.44</v>
+        <v>450.78</v>
       </c>
       <c r="F5">
-        <v>200.45</v>
+        <v>490.75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>15.75</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>75.55</v>
-      </c>
-      <c r="E6">
-        <v>150.44</v>
       </c>
       <c r="F6">
         <v>200.45</v>
@@ -1184,10 +1161,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>100006</v>
+        <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>15.75</v>
@@ -1204,16 +1181,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>100007</v>
+        <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>15.75</v>
-      </c>
-      <c r="D8">
-        <v>75.55</v>
       </c>
       <c r="E8">
         <v>150.44</v>
@@ -1224,10 +1198,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>100008</v>
+        <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>15.75</v>
@@ -1244,10 +1218,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>100009</v>
+        <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>15.75</v>
@@ -1264,10 +1238,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>100010</v>
+        <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>15.75</v>
@@ -1284,10 +1258,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>100011</v>
+        <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>15.75</v>
@@ -1304,10 +1278,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>100012</v>
+        <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>15.75</v>
@@ -1324,10 +1298,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>100013</v>
+        <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>15.75</v>
@@ -1344,10 +1318,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>101001</v>
+        <v>100013</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>15.75</v>
@@ -1364,10 +1338,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>101002</v>
+        <v>101001</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>15.75</v>
@@ -1384,10 +1358,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>15.75</v>
@@ -1404,10 +1378,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>101004</v>
+        <v>101003</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>15.75</v>
@@ -1424,10 +1398,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>101005</v>
+        <v>101004</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>15.75</v>
@@ -1444,10 +1418,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>101006</v>
+        <v>101005</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>15.75</v>
@@ -1464,10 +1438,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>15.75</v>
@@ -1484,10 +1458,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>101008</v>
+        <v>101007</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>15.75</v>
@@ -1504,10 +1478,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>102001</v>
+        <v>101008</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>15.75</v>
@@ -1524,10 +1498,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>102002</v>
+        <v>102001</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>15.75</v>
@@ -1544,10 +1518,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>102003</v>
+        <v>102002</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>15.75</v>
@@ -1564,10 +1538,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>102004</v>
+        <v>102003</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>15.75</v>
@@ -1584,10 +1558,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>102005</v>
+        <v>102004</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>15.75</v>
@@ -1604,10 +1578,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>102006</v>
+        <v>102005</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>15.75</v>
@@ -1624,10 +1598,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>103001</v>
+        <v>102006</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>15.75</v>
@@ -1644,10 +1618,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>103002</v>
+        <v>103001</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>15.75</v>
@@ -1664,10 +1638,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>104001</v>
+        <v>103002</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>15.75</v>
@@ -1684,10 +1658,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>104002</v>
+        <v>104001</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>15.75</v>
@@ -1704,10 +1678,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>104003</v>
+        <v>104002</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>15.75</v>
@@ -1724,10 +1698,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>104004</v>
+        <v>104003</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>15.75</v>
@@ -1744,10 +1718,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>104005</v>
+        <v>104004</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>15.75</v>
@@ -1764,10 +1738,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>104006</v>
+        <v>104005</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>15.75</v>
@@ -1784,10 +1758,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>104007</v>
+        <v>104006</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>15.75</v>
@@ -1804,10 +1778,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>104008</v>
+        <v>104007</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>15.75</v>
@@ -1824,10 +1798,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>104009</v>
+        <v>104008</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>15.75</v>
@@ -1844,10 +1818,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>104010</v>
+        <v>104009</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>15.75</v>
@@ -1864,10 +1838,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>104011</v>
+        <v>104010</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>15.75</v>
@@ -1884,10 +1858,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>104012</v>
+        <v>104011</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>15.75</v>
@@ -1904,10 +1878,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>104013</v>
+        <v>104012</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>15.75</v>
@@ -1924,10 +1898,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>104014</v>
+        <v>104013</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>15.75</v>
@@ -1944,10 +1918,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>104015</v>
+        <v>104014</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>15.75</v>
@@ -1964,10 +1938,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>104016</v>
+        <v>104015</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>15.75</v>
@@ -1984,10 +1958,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>104017</v>
+        <v>104016</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>15.75</v>
@@ -2004,10 +1978,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>104018</v>
+        <v>104017</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>15.75</v>
@@ -2024,10 +1998,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>104019</v>
+        <v>104018</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>15.75</v>
@@ -2044,10 +2018,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>104020</v>
+        <v>104019</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>15.75</v>
@@ -2064,10 +2038,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>104021</v>
+        <v>104020</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>15.75</v>
@@ -2084,10 +2058,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>104022</v>
+        <v>104021</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>15.75</v>
@@ -2104,10 +2078,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>105001</v>
+        <v>104022</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>15.75</v>
@@ -2124,10 +2098,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>105002</v>
+        <v>105001</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>15.75</v>
@@ -2144,10 +2118,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>105003</v>
+        <v>105002</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>15.75</v>
@@ -2164,10 +2138,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>105004</v>
+        <v>105003</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>15.75</v>
@@ -2184,10 +2158,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>105005</v>
+        <v>105004</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>15.75</v>
@@ -2204,10 +2178,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>106001</v>
+        <v>105005</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>15.75</v>
@@ -2224,10 +2198,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>106002</v>
+        <v>106001</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>15.75</v>
@@ -2244,10 +2218,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>106003</v>
+        <v>106002</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>15.75</v>
@@ -2264,10 +2238,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>106004</v>
+        <v>106003</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>15.75</v>
@@ -2284,10 +2258,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>107001</v>
+        <v>106004</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>15.75</v>
@@ -2304,10 +2278,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>107002</v>
+        <v>107001</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>15.75</v>
@@ -2324,10 +2298,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>107003</v>
+        <v>107002</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>15.75</v>
@@ -2344,10 +2318,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>108001</v>
+        <v>107003</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>15.75</v>
@@ -2364,10 +2338,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>108002</v>
+        <v>108001</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>15.75</v>
@@ -2384,10 +2358,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>108003</v>
+        <v>108002</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>15.75</v>
@@ -2404,10 +2378,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>108004</v>
+        <v>108003</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>15.75</v>
@@ -2424,10 +2398,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>108005</v>
+        <v>108004</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>15.75</v>
@@ -2444,10 +2418,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>109001</v>
+        <v>108005</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>15.75</v>
@@ -2464,10 +2438,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>109002</v>
+        <v>109001</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>15.75</v>
@@ -2484,10 +2458,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>109003</v>
+        <v>109002</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>15.75</v>
@@ -2504,10 +2478,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>109004</v>
+        <v>109003</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>15.75</v>
@@ -2524,10 +2498,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>109005</v>
+        <v>109004</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>15.75</v>
@@ -2544,10 +2518,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>110001</v>
+        <v>109005</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>15.75</v>
@@ -2564,10 +2538,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>110002</v>
+        <v>110001</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>15.75</v>
@@ -2584,10 +2558,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>110003</v>
+        <v>110002</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>15.75</v>
@@ -2604,10 +2578,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>110004</v>
+        <v>110003</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>15.75</v>
@@ -2624,10 +2598,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>110005</v>
+        <v>110004</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>15.75</v>
@@ -2644,10 +2618,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>110006</v>
+        <v>110005</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>15.75</v>
@@ -2664,10 +2638,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>110007</v>
+        <v>110006</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>15.75</v>
@@ -2684,10 +2658,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>110008</v>
+        <v>110007</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>15.75</v>
@@ -2704,10 +2678,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>110009</v>
+        <v>110008</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>15.75</v>
@@ -2724,10 +2698,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>110010</v>
+        <v>110009</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>15.75</v>
@@ -2744,10 +2718,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>110011</v>
+        <v>110010</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>15.75</v>
@@ -2764,10 +2738,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>110012</v>
+        <v>110011</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>15.75</v>
@@ -2784,10 +2758,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>110013</v>
+        <v>110012</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>15.75</v>
@@ -2804,10 +2778,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>110014</v>
+        <v>110013</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>15.75</v>
@@ -2824,10 +2798,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>110015</v>
+        <v>110014</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>15.75</v>
@@ -2844,10 +2818,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>110050</v>
+        <v>110015</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>15.75</v>
@@ -2864,10 +2838,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>110051</v>
+        <v>110050</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>15.75</v>
@@ -2884,10 +2858,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>110052</v>
+        <v>110051</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>15.75</v>
@@ -2904,10 +2878,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>110053</v>
+        <v>110052</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>15.75</v>
@@ -2924,10 +2898,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>111001</v>
+        <v>110053</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>15.75</v>
@@ -2944,10 +2918,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>111002</v>
+        <v>111001</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>15.75</v>
@@ -2964,10 +2938,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>111003</v>
+        <v>111002</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>15.75</v>
@@ -2984,10 +2958,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>111006</v>
+        <v>111003</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>15.75</v>
@@ -3004,10 +2978,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>111007</v>
+        <v>111006</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>15.75</v>
@@ -3024,10 +2998,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>111008</v>
+        <v>111007</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>15.75</v>
@@ -3044,10 +3018,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>111009</v>
+        <v>111008</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>15.75</v>
@@ -3064,10 +3038,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>111010</v>
+        <v>111009</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>15.75</v>
@@ -3084,10 +3058,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>111011</v>
+        <v>111010</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>15.75</v>
@@ -3104,10 +3078,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>111012</v>
+        <v>111011</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>15.75</v>
@@ -3124,10 +3098,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>111013</v>
+        <v>111012</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>15.75</v>
@@ -3144,10 +3118,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>111014</v>
+        <v>111013</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>15.75</v>
@@ -3164,10 +3138,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>111015</v>
+        <v>111014</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>15.75</v>
@@ -3184,10 +3158,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>111016</v>
+        <v>111015</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>15.75</v>
@@ -3204,10 +3178,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>111017</v>
+        <v>111016</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <v>15.75</v>
@@ -3224,10 +3198,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>111018</v>
+        <v>111017</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <v>15.75</v>
@@ -3244,10 +3218,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>111019</v>
+        <v>111018</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>15.75</v>
@@ -3264,10 +3238,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>111020</v>
+        <v>111019</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>15.75</v>
@@ -3284,10 +3258,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>111021</v>
+        <v>111020</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112">
         <v>15.75</v>
@@ -3304,10 +3278,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>111022</v>
+        <v>111021</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>15.75</v>
@@ -3324,10 +3298,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>112001</v>
+        <v>111022</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>15.75</v>
@@ -3344,10 +3318,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>112002</v>
+        <v>112001</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>15.75</v>
@@ -3364,10 +3338,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>112003</v>
+        <v>112002</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>15.75</v>
@@ -3384,10 +3358,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>112004</v>
+        <v>112003</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>15.75</v>
@@ -3404,10 +3378,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>113001</v>
+        <v>112004</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>15.75</v>
@@ -3424,10 +3398,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>113002</v>
+        <v>113001</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119">
         <v>15.75</v>
@@ -3444,10 +3418,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>113003</v>
+        <v>113002</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120">
         <v>15.75</v>
@@ -3464,10 +3438,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>113004</v>
+        <v>113003</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121">
         <v>15.75</v>
@@ -3484,10 +3458,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>113005</v>
+        <v>113004</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>15.75</v>
@@ -3504,10 +3478,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>113006</v>
+        <v>113005</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>15.75</v>
@@ -3524,10 +3498,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>114001</v>
+        <v>113006</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>15.75</v>
@@ -3544,10 +3518,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>114002</v>
+        <v>114001</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125">
         <v>15.75</v>
@@ -3564,10 +3538,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>114003</v>
+        <v>114002</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>15.75</v>
@@ -3584,10 +3558,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>114005</v>
+        <v>114003</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127">
         <v>15.75</v>
@@ -3604,10 +3578,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>115001</v>
+        <v>114005</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>15.75</v>
@@ -3624,10 +3598,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>115002</v>
+        <v>115001</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>15.75</v>
@@ -3644,10 +3618,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>115003</v>
+        <v>115002</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>15.75</v>
@@ -3664,10 +3638,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>115004</v>
+        <v>115003</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <v>15.75</v>
@@ -3684,10 +3658,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>115005</v>
+        <v>115004</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>15.75</v>
@@ -3704,10 +3678,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>115006</v>
+        <v>115005</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>15.75</v>
@@ -3724,10 +3698,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>116001</v>
+        <v>115006</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>15.75</v>
@@ -3744,10 +3718,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>116002</v>
+        <v>116001</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>15.75</v>
@@ -3764,10 +3738,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>116003</v>
+        <v>116002</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>15.75</v>
@@ -3784,10 +3758,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>116004</v>
+        <v>116003</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>15.75</v>
@@ -3804,10 +3778,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>116005</v>
+        <v>116004</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>15.75</v>
@@ -3824,10 +3798,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>116020</v>
+        <v>116005</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>15.75</v>
@@ -3844,10 +3818,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>116021</v>
+        <v>116020</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140">
         <v>15.75</v>
@@ -3864,10 +3838,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>116022</v>
+        <v>116021</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>15.75</v>
@@ -3884,10 +3858,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>116023</v>
+        <v>116022</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>15.75</v>
@@ -3904,10 +3878,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>116024</v>
+        <v>116023</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>15.75</v>
@@ -3924,10 +3898,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>116025</v>
+        <v>116024</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>15.75</v>
@@ -3944,10 +3918,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>116026</v>
+        <v>116025</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>15.75</v>
@@ -3964,10 +3938,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>116027</v>
+        <v>116026</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>15.75</v>
@@ -3984,10 +3958,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>116028</v>
+        <v>116027</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147">
         <v>15.75</v>
@@ -4004,10 +3978,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>116029</v>
+        <v>116028</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148">
         <v>15.75</v>
@@ -4024,10 +3998,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>116030</v>
+        <v>116029</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149">
         <v>15.75</v>
@@ -4044,10 +4018,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>116031</v>
+        <v>116030</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>15.75</v>
@@ -4064,10 +4038,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>116032</v>
+        <v>116031</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151">
         <v>15.75</v>
@@ -4084,10 +4058,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>116033</v>
+        <v>116032</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152">
         <v>15.75</v>
@@ -4104,10 +4078,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>117001</v>
+        <v>116033</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153">
         <v>15.75</v>
@@ -4124,10 +4098,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>117002</v>
+        <v>117001</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154">
         <v>15.75</v>
@@ -4144,10 +4118,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>117003</v>
+        <v>117002</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C155">
         <v>15.75</v>
@@ -4164,10 +4138,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>117004</v>
+        <v>117003</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156">
         <v>15.75</v>
@@ -4184,10 +4158,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>117005</v>
+        <v>117004</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157">
         <v>15.75</v>
@@ -4204,10 +4178,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>117006</v>
+        <v>117005</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158">
         <v>15.75</v>
@@ -4224,10 +4198,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>117007</v>
+        <v>117006</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159">
         <v>15.75</v>
@@ -4244,10 +4218,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>117008</v>
+        <v>117007</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160">
         <v>15.75</v>
@@ -4264,10 +4238,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>117009</v>
+        <v>117008</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161">
         <v>15.75</v>
@@ -4284,10 +4258,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>117010</v>
+        <v>117009</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162">
         <v>15.75</v>
@@ -4304,10 +4278,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>117011</v>
+        <v>117010</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163">
         <v>15.75</v>
@@ -4324,10 +4298,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>117012</v>
+        <v>117011</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164">
         <v>15.75</v>
@@ -4344,10 +4318,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>117013</v>
+        <v>117012</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165">
         <v>15.75</v>
@@ -4364,10 +4338,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>117014</v>
+        <v>117013</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166">
         <v>15.75</v>
@@ -4384,10 +4358,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>117015</v>
+        <v>117014</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167">
         <v>15.75</v>
@@ -4404,10 +4378,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>117016</v>
+        <v>117015</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C168">
         <v>15.75</v>
@@ -4424,10 +4398,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>117017</v>
+        <v>117016</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>15.75</v>
@@ -4444,10 +4418,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>117018</v>
+        <v>117017</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C170">
         <v>15.75</v>
@@ -4464,10 +4438,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>117019</v>
+        <v>117018</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171">
         <v>15.75</v>
@@ -4484,10 +4458,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>118001</v>
+        <v>117019</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>15.75</v>
@@ -4504,10 +4478,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>118002</v>
+        <v>118001</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>15.75</v>
@@ -4524,10 +4498,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>118003</v>
+        <v>118002</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174">
         <v>15.75</v>
@@ -4544,10 +4518,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>118004</v>
+        <v>118003</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175">
         <v>15.75</v>
@@ -4564,10 +4538,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>118005</v>
+        <v>118004</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176">
         <v>15.75</v>
@@ -4584,10 +4558,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>118006</v>
+        <v>118005</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177">
         <v>15.75</v>
@@ -4604,10 +4578,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>118007</v>
+        <v>118006</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178">
         <v>15.75</v>
@@ -4624,10 +4598,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>118008</v>
+        <v>118007</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179">
         <v>15.75</v>
@@ -4644,10 +4618,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>118009</v>
+        <v>118008</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C180">
         <v>15.75</v>
@@ -4664,10 +4638,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>118010</v>
+        <v>118009</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C181">
         <v>15.75</v>
@@ -4684,10 +4658,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>118011</v>
+        <v>118010</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182">
         <v>15.75</v>
@@ -4704,10 +4678,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>118012</v>
+        <v>118011</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183">
         <v>15.75</v>
@@ -4724,10 +4698,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>118013</v>
+        <v>118012</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>15.75</v>
@@ -4744,10 +4718,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>118014</v>
+        <v>118013</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185">
         <v>15.75</v>
@@ -4764,10 +4738,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>118015</v>
+        <v>118014</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186">
         <v>15.75</v>
@@ -4784,10 +4758,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>118016</v>
+        <v>118015</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187">
         <v>15.75</v>
@@ -4804,10 +4778,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>118017</v>
+        <v>118016</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188">
         <v>15.75</v>
@@ -4824,10 +4798,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>118018</v>
+        <v>118017</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189">
         <v>15.75</v>
@@ -4844,10 +4818,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>118019</v>
+        <v>118018</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190">
         <v>15.75</v>
@@ -4864,10 +4838,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>118020</v>
+        <v>118019</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191">
         <v>15.75</v>
@@ -4884,10 +4858,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>118021</v>
+        <v>118020</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192">
         <v>15.75</v>
@@ -4904,10 +4878,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>118022</v>
+        <v>118021</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193">
         <v>15.75</v>
@@ -4924,10 +4898,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>118023</v>
+        <v>118022</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194">
         <v>15.75</v>
@@ -4944,10 +4918,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>118024</v>
+        <v>118023</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195">
         <v>15.75</v>
@@ -4964,10 +4938,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>118025</v>
+        <v>118024</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196">
         <v>15.75</v>
@@ -4984,10 +4958,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>118026</v>
+        <v>118025</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197">
         <v>15.75</v>
@@ -5004,10 +4978,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>118027</v>
+        <v>118026</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198">
         <v>15.75</v>
@@ -5024,10 +4998,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>118028</v>
+        <v>118027</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199">
         <v>15.75</v>
@@ -5044,10 +5018,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>118029</v>
+        <v>118028</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200">
         <v>15.75</v>
@@ -5064,10 +5038,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>118030</v>
+        <v>118029</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C201">
         <v>15.75</v>
@@ -5084,10 +5058,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>118031</v>
+        <v>118030</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202">
         <v>15.75</v>
@@ -5104,10 +5078,10 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>118032</v>
+        <v>118031</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203">
         <v>15.75</v>
@@ -5124,10 +5098,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>118033</v>
+        <v>118032</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204">
         <v>15.75</v>
@@ -5144,10 +5118,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>119001</v>
+        <v>118033</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205">
         <v>15.75</v>
@@ -5164,10 +5138,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>119002</v>
+        <v>119001</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206">
         <v>15.75</v>
@@ -5184,10 +5158,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>120001</v>
+        <v>119002</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207">
         <v>15.75</v>
@@ -5204,10 +5178,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>120002</v>
+        <v>120001</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208">
         <v>15.75</v>
@@ -5224,10 +5198,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>120003</v>
+        <v>120002</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209">
         <v>15.75</v>
@@ -5244,10 +5218,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>120004</v>
+        <v>120003</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>15.75</v>
@@ -5264,10 +5238,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>120005</v>
+        <v>120004</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C211">
         <v>15.75</v>
@@ -5284,10 +5258,10 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>120006</v>
+        <v>120005</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212">
         <v>15.75</v>
@@ -5304,10 +5278,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>120007</v>
+        <v>120006</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213">
         <v>15.75</v>
@@ -5324,10 +5298,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>121001</v>
+        <v>120007</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214">
         <v>15.75</v>
@@ -5344,10 +5318,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>121002</v>
+        <v>121001</v>
       </c>
       <c r="B215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215">
         <v>15.75</v>
@@ -5364,10 +5338,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>121003</v>
+        <v>121002</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216">
         <v>15.75</v>
@@ -5384,10 +5358,10 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>121004</v>
+        <v>121003</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C217">
         <v>15.75</v>
@@ -5404,10 +5378,10 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>121005</v>
+        <v>121004</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218">
         <v>15.75</v>
@@ -5424,10 +5398,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>121006</v>
+        <v>121005</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C219">
         <v>15.75</v>
@@ -5444,10 +5418,10 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>121007</v>
+        <v>121006</v>
       </c>
       <c r="B220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C220">
         <v>15.75</v>
@@ -5464,10 +5438,10 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>122001</v>
+        <v>121007</v>
       </c>
       <c r="B221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C221">
         <v>15.75</v>
@@ -5484,10 +5458,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>122002</v>
+        <v>122001</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C222">
         <v>15.75</v>
@@ -5504,10 +5478,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>122003</v>
+        <v>122002</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223">
         <v>15.75</v>
@@ -5524,10 +5498,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>122004</v>
+        <v>122003</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C224">
         <v>15.75</v>
@@ -5544,10 +5518,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>122005</v>
+        <v>122004</v>
       </c>
       <c r="B225" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C225">
         <v>15.75</v>
@@ -5564,10 +5538,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>122006</v>
+        <v>122005</v>
       </c>
       <c r="B226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C226">
         <v>15.75</v>
@@ -5584,10 +5558,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>122007</v>
+        <v>122006</v>
       </c>
       <c r="B227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C227">
         <v>15.75</v>
@@ -5604,21 +5578,41 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
+        <v>122007</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228">
+        <v>15.75</v>
+      </c>
+      <c r="D228">
+        <v>75.55</v>
+      </c>
+      <c r="E228">
+        <v>150.44</v>
+      </c>
+      <c r="F228">
+        <v>200.45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
         <v>122008</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>232</v>
       </c>
-      <c r="C228">
-        <v>15.75</v>
-      </c>
-      <c r="D228">
-        <v>75.55</v>
-      </c>
-      <c r="E228">
-        <v>150.44</v>
-      </c>
-      <c r="F228">
+      <c r="C229">
+        <v>15.75</v>
+      </c>
+      <c r="D229">
+        <v>75.55</v>
+      </c>
+      <c r="E229">
+        <v>150.44</v>
+      </c>
+      <c r="F229">
         <v>200.45</v>
       </c>
     </row>
@@ -5634,7 +5628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5646,7 +5640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Orellana-PruebaImportacionPrecios.xlsx
+++ b/SQL/Orellana-PruebaImportacionPrecios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>IdArticulo</t>
   </si>
@@ -33,9 +33,6 @@
     <t> Resto </t>
   </si>
   <si>
-    <t> Boutique </t>
-  </si>
-  <si>
     <t>Iluminé</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>Pan Dulce 500g</t>
   </si>
   <si>
-    <t>Pan Dulce Inovlidable 700g con Estuche</t>
-  </si>
-  <si>
     <t>V8 lata x 163ml</t>
   </si>
   <si>
@@ -715,6 +709,9 @@
   </si>
   <si>
     <t>Tanlatam - Cacao amargo, maní y un toque de café.</t>
+  </si>
+  <si>
+    <t>Boutique</t>
   </si>
 </sst>
 </file>
@@ -762,7 +759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
@@ -1079,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1087,7 +1084,7 @@
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>11.01</v>
@@ -1107,7 +1104,7 @@
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15000</v>
@@ -1127,7 +1124,7 @@
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>375.56</v>
@@ -1147,13 +1144,16 @@
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
       <c r="D6">
         <v>75.55</v>
+      </c>
+      <c r="E6">
+        <v>88.88</v>
       </c>
       <c r="F6">
         <v>200.45</v>
@@ -1164,7 +1164,7 @@
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>15.75</v>
@@ -1184,10 +1184,13 @@
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>15.75</v>
+      </c>
+      <c r="D8">
+        <v>88.88</v>
       </c>
       <c r="E8">
         <v>150.44</v>
@@ -1201,7 +1204,7 @@
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>15.75</v>
@@ -1221,7 +1224,7 @@
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>15.75</v>
@@ -1241,7 +1244,7 @@
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>15.75</v>
@@ -1261,7 +1264,7 @@
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>15.75</v>
@@ -1281,7 +1284,7 @@
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>15.75</v>
@@ -1301,7 +1304,7 @@
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>15.75</v>
@@ -1321,7 +1324,7 @@
         <v>100013</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>15.75</v>
@@ -1341,7 +1344,7 @@
         <v>101001</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>15.75</v>
@@ -1361,7 +1364,7 @@
         <v>101002</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>15.75</v>
@@ -1381,7 +1384,7 @@
         <v>101003</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>15.75</v>
@@ -1401,7 +1404,7 @@
         <v>101004</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>15.75</v>
@@ -1421,7 +1424,7 @@
         <v>101005</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>15.75</v>
@@ -1441,7 +1444,7 @@
         <v>101006</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>15.75</v>
@@ -1461,7 +1464,7 @@
         <v>101007</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>15.75</v>
@@ -1481,7 +1484,7 @@
         <v>101008</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>15.75</v>
@@ -1501,7 +1504,7 @@
         <v>102001</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>15.75</v>
@@ -1521,7 +1524,7 @@
         <v>102002</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>15.75</v>
@@ -1541,7 +1544,7 @@
         <v>102003</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>15.75</v>
@@ -1561,7 +1564,7 @@
         <v>102004</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>15.75</v>
@@ -1581,7 +1584,7 @@
         <v>102005</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>15.75</v>
@@ -1601,7 +1604,7 @@
         <v>102006</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>15.75</v>
@@ -1621,7 +1624,7 @@
         <v>103001</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>15.75</v>
@@ -1641,7 +1644,7 @@
         <v>103002</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>15.75</v>
@@ -1661,7 +1664,7 @@
         <v>104001</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>15.75</v>
@@ -1681,7 +1684,7 @@
         <v>104002</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>15.75</v>
@@ -1701,7 +1704,7 @@
         <v>104003</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>15.75</v>
@@ -1721,7 +1724,7 @@
         <v>104004</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>15.75</v>
@@ -1741,7 +1744,7 @@
         <v>104005</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>15.75</v>
@@ -1761,7 +1764,7 @@
         <v>104006</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>15.75</v>
@@ -1781,7 +1784,7 @@
         <v>104007</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>15.75</v>
@@ -1801,7 +1804,7 @@
         <v>104008</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>15.75</v>
@@ -1821,7 +1824,7 @@
         <v>104009</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>15.75</v>
@@ -1841,7 +1844,7 @@
         <v>104010</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>15.75</v>
@@ -1861,7 +1864,7 @@
         <v>104011</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>15.75</v>
@@ -1881,7 +1884,7 @@
         <v>104012</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>15.75</v>
@@ -1901,7 +1904,7 @@
         <v>104013</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>15.75</v>
@@ -1921,7 +1924,7 @@
         <v>104014</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>15.75</v>
@@ -1941,7 +1944,7 @@
         <v>104015</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>15.75</v>
@@ -1961,7 +1964,7 @@
         <v>104016</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>15.75</v>
@@ -1981,7 +1984,7 @@
         <v>104017</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>15.75</v>
@@ -2001,7 +2004,7 @@
         <v>104018</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>15.75</v>
@@ -2021,7 +2024,7 @@
         <v>104019</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>15.75</v>
@@ -2041,7 +2044,7 @@
         <v>104020</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>15.75</v>
@@ -2061,7 +2064,7 @@
         <v>104021</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>15.75</v>
@@ -2081,7 +2084,7 @@
         <v>104022</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>15.75</v>
@@ -2101,7 +2104,7 @@
         <v>105001</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>15.75</v>
@@ -2121,7 +2124,7 @@
         <v>105002</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>15.75</v>
@@ -2141,7 +2144,7 @@
         <v>105003</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>15.75</v>
@@ -2161,7 +2164,7 @@
         <v>105004</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>15.75</v>
@@ -2181,7 +2184,7 @@
         <v>105005</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>15.75</v>
@@ -2201,7 +2204,7 @@
         <v>106001</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>15.75</v>
@@ -2221,7 +2224,7 @@
         <v>106002</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>15.75</v>
@@ -2241,7 +2244,7 @@
         <v>106003</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>15.75</v>
@@ -2261,7 +2264,7 @@
         <v>106004</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>15.75</v>
@@ -2281,7 +2284,7 @@
         <v>107001</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>15.75</v>
@@ -2301,7 +2304,7 @@
         <v>107002</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>15.75</v>
@@ -2321,7 +2324,7 @@
         <v>107003</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>15.75</v>
@@ -2341,7 +2344,7 @@
         <v>108001</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>15.75</v>
@@ -2361,7 +2364,7 @@
         <v>108002</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>15.75</v>
@@ -2381,7 +2384,7 @@
         <v>108003</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>15.75</v>
@@ -2401,7 +2404,7 @@
         <v>108004</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>15.75</v>
@@ -2421,7 +2424,7 @@
         <v>108005</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>15.75</v>
@@ -2441,7 +2444,7 @@
         <v>109001</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>15.75</v>
@@ -2461,7 +2464,7 @@
         <v>109002</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>15.75</v>
@@ -2481,7 +2484,7 @@
         <v>109003</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>15.75</v>
@@ -2501,7 +2504,7 @@
         <v>109004</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>15.75</v>
@@ -2521,7 +2524,7 @@
         <v>109005</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>15.75</v>
@@ -2541,7 +2544,7 @@
         <v>110001</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>15.75</v>
@@ -2561,7 +2564,7 @@
         <v>110002</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>15.75</v>
@@ -2581,7 +2584,7 @@
         <v>110003</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>15.75</v>
@@ -2601,7 +2604,7 @@
         <v>110004</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>15.75</v>
@@ -2621,7 +2624,7 @@
         <v>110005</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>15.75</v>
@@ -2641,7 +2644,7 @@
         <v>110006</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>15.75</v>
@@ -2661,7 +2664,7 @@
         <v>110007</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>15.75</v>
@@ -2681,7 +2684,7 @@
         <v>110008</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>15.75</v>
@@ -2701,7 +2704,7 @@
         <v>110009</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>15.75</v>
@@ -2721,7 +2724,7 @@
         <v>110010</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>15.75</v>
@@ -2741,7 +2744,7 @@
         <v>110011</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>15.75</v>
@@ -2761,7 +2764,7 @@
         <v>110012</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>15.75</v>
@@ -2781,7 +2784,7 @@
         <v>110013</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>15.75</v>
@@ -2801,7 +2804,7 @@
         <v>110014</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>15.75</v>
@@ -2821,7 +2824,7 @@
         <v>110015</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>15.75</v>
@@ -2841,7 +2844,7 @@
         <v>110050</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>15.75</v>
@@ -2861,7 +2864,7 @@
         <v>110051</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>15.75</v>
@@ -2881,7 +2884,7 @@
         <v>110052</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>15.75</v>
@@ -2901,7 +2904,7 @@
         <v>110053</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>15.75</v>
@@ -2921,7 +2924,7 @@
         <v>111001</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>15.75</v>
@@ -2941,7 +2944,7 @@
         <v>111002</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>15.75</v>
@@ -2961,7 +2964,7 @@
         <v>111003</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>15.75</v>
@@ -2981,7 +2984,7 @@
         <v>111006</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>15.75</v>
@@ -3001,7 +3004,7 @@
         <v>111007</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>15.75</v>
@@ -3021,7 +3024,7 @@
         <v>111008</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>15.75</v>
@@ -3041,7 +3044,7 @@
         <v>111009</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>15.75</v>
@@ -3061,7 +3064,7 @@
         <v>111010</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>15.75</v>
@@ -3081,7 +3084,7 @@
         <v>111011</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>15.75</v>
@@ -3101,7 +3104,7 @@
         <v>111012</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>15.75</v>
@@ -3121,7 +3124,7 @@
         <v>111013</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>15.75</v>
@@ -3141,7 +3144,7 @@
         <v>111014</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>15.75</v>
@@ -3161,7 +3164,7 @@
         <v>111015</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>15.75</v>
@@ -3181,7 +3184,7 @@
         <v>111016</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>15.75</v>
@@ -3201,7 +3204,7 @@
         <v>111017</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>15.75</v>
@@ -3221,7 +3224,7 @@
         <v>111018</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>15.75</v>
@@ -3241,7 +3244,7 @@
         <v>111019</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>15.75</v>
@@ -3261,7 +3264,7 @@
         <v>111020</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>15.75</v>
@@ -3281,7 +3284,7 @@
         <v>111021</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>15.75</v>
@@ -3301,7 +3304,7 @@
         <v>111022</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>15.75</v>
@@ -3321,7 +3324,7 @@
         <v>112001</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>15.75</v>
@@ -3341,7 +3344,7 @@
         <v>112002</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>15.75</v>
@@ -3361,7 +3364,7 @@
         <v>112003</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>15.75</v>
@@ -3381,7 +3384,7 @@
         <v>112004</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>15.75</v>
@@ -3401,7 +3404,7 @@
         <v>113001</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>15.75</v>
@@ -3421,7 +3424,7 @@
         <v>113002</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>15.75</v>
@@ -3441,7 +3444,7 @@
         <v>113003</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>15.75</v>
@@ -3461,7 +3464,7 @@
         <v>113004</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>15.75</v>
@@ -3481,7 +3484,7 @@
         <v>113005</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>15.75</v>
@@ -3501,7 +3504,7 @@
         <v>113006</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>15.75</v>
@@ -3521,7 +3524,7 @@
         <v>114001</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>15.75</v>
@@ -3541,7 +3544,7 @@
         <v>114002</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>15.75</v>
@@ -3561,7 +3564,7 @@
         <v>114003</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>15.75</v>
@@ -3578,10 +3581,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>114005</v>
+        <v>115001</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>15.75</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>115001</v>
+        <v>115002</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>15.75</v>
@@ -3618,10 +3621,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>115002</v>
+        <v>115003</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>15.75</v>
@@ -3638,10 +3641,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>115003</v>
+        <v>115004</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131">
         <v>15.75</v>
@@ -3658,10 +3661,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>115004</v>
+        <v>115005</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132">
         <v>15.75</v>
@@ -3678,10 +3681,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>115005</v>
+        <v>115006</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133">
         <v>15.75</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>115006</v>
+        <v>116001</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134">
         <v>15.75</v>
@@ -3718,10 +3721,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>116001</v>
+        <v>116002</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>15.75</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>116002</v>
+        <v>116003</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>15.75</v>
@@ -3758,10 +3761,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>116003</v>
+        <v>116004</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>15.75</v>
@@ -3778,10 +3781,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>116004</v>
+        <v>116005</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>15.75</v>
@@ -3798,10 +3801,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>116005</v>
+        <v>116020</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>15.75</v>
@@ -3818,10 +3821,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>116020</v>
+        <v>116021</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140">
         <v>15.75</v>
@@ -3838,10 +3841,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>116021</v>
+        <v>116022</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>15.75</v>
@@ -3858,10 +3861,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>116022</v>
+        <v>116023</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>15.75</v>
@@ -3878,10 +3881,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>116023</v>
+        <v>116024</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143">
         <v>15.75</v>
@@ -3898,10 +3901,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>116024</v>
+        <v>116025</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144">
         <v>15.75</v>
@@ -3918,10 +3921,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>116025</v>
+        <v>116026</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>15.75</v>
@@ -3938,10 +3941,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>116026</v>
+        <v>116027</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>15.75</v>
@@ -3958,10 +3961,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>116027</v>
+        <v>116028</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>15.75</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>116028</v>
+        <v>116029</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>15.75</v>
@@ -3998,10 +4001,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>116029</v>
+        <v>116030</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>15.75</v>
@@ -4018,10 +4021,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>116030</v>
+        <v>116031</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>15.75</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>116031</v>
+        <v>116032</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>15.75</v>
@@ -4058,10 +4061,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>116032</v>
+        <v>116033</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>15.75</v>
@@ -4078,10 +4081,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>116033</v>
+        <v>117001</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>15.75</v>
@@ -4098,10 +4101,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>117001</v>
+        <v>117002</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <v>15.75</v>
@@ -4118,10 +4121,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>117002</v>
+        <v>117003</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>15.75</v>
@@ -4138,10 +4141,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>117003</v>
+        <v>117004</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156">
         <v>15.75</v>
@@ -4158,10 +4161,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>117004</v>
+        <v>117005</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <v>15.75</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>117005</v>
+        <v>117006</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158">
         <v>15.75</v>
@@ -4198,10 +4201,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>117006</v>
+        <v>117007</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159">
         <v>15.75</v>
@@ -4218,10 +4221,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>117007</v>
+        <v>117008</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160">
         <v>15.75</v>
@@ -4238,10 +4241,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>117008</v>
+        <v>117009</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>15.75</v>
@@ -4258,10 +4261,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>117009</v>
+        <v>117010</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162">
         <v>15.75</v>
@@ -4278,10 +4281,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>117010</v>
+        <v>117011</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>15.75</v>
@@ -4298,10 +4301,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>117011</v>
+        <v>117012</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164">
         <v>15.75</v>
@@ -4318,10 +4321,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>117012</v>
+        <v>117013</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165">
         <v>15.75</v>
@@ -4338,10 +4341,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>117013</v>
+        <v>117014</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166">
         <v>15.75</v>
@@ -4358,10 +4361,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>117014</v>
+        <v>117015</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167">
         <v>15.75</v>
@@ -4378,10 +4381,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>117015</v>
+        <v>117016</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>15.75</v>
@@ -4398,10 +4401,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>117016</v>
+        <v>117017</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>15.75</v>
@@ -4418,10 +4421,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>117017</v>
+        <v>117018</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>15.75</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>117018</v>
+        <v>117019</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>15.75</v>
@@ -4458,10 +4461,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>117019</v>
+        <v>118001</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>15.75</v>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>118001</v>
+        <v>118002</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>15.75</v>
@@ -4498,10 +4501,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>118002</v>
+        <v>118003</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>15.75</v>
@@ -4518,10 +4521,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>118003</v>
+        <v>118004</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>15.75</v>
@@ -4538,10 +4541,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>118004</v>
+        <v>118005</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>15.75</v>
@@ -4558,10 +4561,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>118005</v>
+        <v>118006</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>15.75</v>
@@ -4578,10 +4581,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>118006</v>
+        <v>118007</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>15.75</v>
@@ -4598,10 +4601,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>118007</v>
+        <v>118008</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>15.75</v>
@@ -4618,10 +4621,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>118008</v>
+        <v>118009</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>15.75</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>118009</v>
+        <v>118010</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181">
         <v>15.75</v>
@@ -4658,10 +4661,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>118010</v>
+        <v>118011</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182">
         <v>15.75</v>
@@ -4678,10 +4681,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>118011</v>
+        <v>118012</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183">
         <v>15.75</v>
@@ -4698,10 +4701,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>118012</v>
+        <v>118013</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184">
         <v>15.75</v>
@@ -4718,10 +4721,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>118013</v>
+        <v>118014</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185">
         <v>15.75</v>
@@ -4738,10 +4741,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>118014</v>
+        <v>118015</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186">
         <v>15.75</v>
@@ -4758,10 +4761,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>118015</v>
+        <v>118016</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>15.75</v>
@@ -4778,10 +4781,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>118016</v>
+        <v>118017</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>15.75</v>
@@ -4798,10 +4801,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>118017</v>
+        <v>118018</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>15.75</v>
@@ -4818,10 +4821,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>118018</v>
+        <v>118019</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190">
         <v>15.75</v>
@@ -4838,10 +4841,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>118019</v>
+        <v>118020</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>15.75</v>
@@ -4858,10 +4861,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>118020</v>
+        <v>118021</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192">
         <v>15.75</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>118021</v>
+        <v>118022</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193">
         <v>15.75</v>
@@ -4898,10 +4901,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>118022</v>
+        <v>118023</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194">
         <v>15.75</v>
@@ -4918,10 +4921,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>118023</v>
+        <v>118024</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195">
         <v>15.75</v>
@@ -4938,10 +4941,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>118024</v>
+        <v>118025</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196">
         <v>15.75</v>
@@ -4958,10 +4961,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>118025</v>
+        <v>118026</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197">
         <v>15.75</v>
@@ -4978,10 +4981,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>118026</v>
+        <v>118027</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198">
         <v>15.75</v>
@@ -4998,10 +5001,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>118027</v>
+        <v>118028</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199">
         <v>15.75</v>
@@ -5018,10 +5021,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>118028</v>
+        <v>118029</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>15.75</v>
@@ -5038,10 +5041,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>118029</v>
+        <v>118030</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201">
         <v>15.75</v>
@@ -5058,10 +5061,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>118030</v>
+        <v>118031</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>15.75</v>
@@ -5078,10 +5081,10 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>118031</v>
+        <v>118032</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203">
         <v>15.75</v>
@@ -5098,10 +5101,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>118032</v>
+        <v>118033</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204">
         <v>15.75</v>
@@ -5118,10 +5121,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>118033</v>
+        <v>119001</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205">
         <v>15.75</v>
@@ -5138,10 +5141,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>119001</v>
+        <v>119002</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>15.75</v>
@@ -5158,10 +5161,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>119002</v>
+        <v>120001</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>15.75</v>
@@ -5178,10 +5181,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>120001</v>
+        <v>120002</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208">
         <v>15.75</v>
@@ -5198,10 +5201,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>120002</v>
+        <v>120003</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209">
         <v>15.75</v>
@@ -5218,10 +5221,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>120003</v>
+        <v>120004</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210">
         <v>15.75</v>
@@ -5238,10 +5241,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>120004</v>
+        <v>120005</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211">
         <v>15.75</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>120005</v>
+        <v>120006</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212">
         <v>15.75</v>
@@ -5278,10 +5281,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>120006</v>
+        <v>120007</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213">
         <v>15.75</v>
@@ -5298,10 +5301,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>120007</v>
+        <v>121001</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214">
         <v>15.75</v>
@@ -5318,10 +5321,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>121001</v>
+        <v>121002</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215">
         <v>15.75</v>
@@ -5338,10 +5341,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>121002</v>
+        <v>121003</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216">
         <v>15.75</v>
@@ -5358,10 +5361,10 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>121003</v>
+        <v>121004</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217">
         <v>15.75</v>
@@ -5378,10 +5381,10 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>121004</v>
+        <v>121005</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218">
         <v>15.75</v>
@@ -5398,10 +5401,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>121005</v>
+        <v>121006</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219">
         <v>15.75</v>
@@ -5418,10 +5421,10 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>121006</v>
+        <v>121007</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C220">
         <v>15.75</v>
@@ -5438,10 +5441,10 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>121007</v>
+        <v>122001</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C221">
         <v>15.75</v>
@@ -5458,10 +5461,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>122001</v>
+        <v>122002</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222">
         <v>15.75</v>
@@ -5478,10 +5481,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>122002</v>
+        <v>122003</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223">
         <v>15.75</v>
@@ -5498,10 +5501,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>122003</v>
+        <v>122004</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224">
         <v>15.75</v>
@@ -5518,10 +5521,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>122004</v>
+        <v>122005</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C225">
         <v>15.75</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>122005</v>
+        <v>122006</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C226">
         <v>15.75</v>
@@ -5558,10 +5561,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>122006</v>
+        <v>122007</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227">
         <v>15.75</v>
@@ -5578,10 +5581,10 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>122007</v>
+        <v>122008</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228">
         <v>15.75</v>
@@ -5593,26 +5596,6 @@
         <v>150.44</v>
       </c>
       <c r="F228">
-        <v>200.45</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>122008</v>
-      </c>
-      <c r="B229" t="s">
-        <v>232</v>
-      </c>
-      <c r="C229">
-        <v>15.75</v>
-      </c>
-      <c r="D229">
-        <v>75.55</v>
-      </c>
-      <c r="E229">
-        <v>150.44</v>
-      </c>
-      <c r="F229">
         <v>200.45</v>
       </c>
     </row>
@@ -5628,7 +5611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5640,7 +5623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
